--- a/medicine/Mort/Cimetière_de_la_Chaussée-d'Antin/Cimetière_de_la_Chaussée-d'Antin.xlsx
+++ b/medicine/Mort/Cimetière_de_la_Chaussée-d'Antin/Cimetière_de_la_Chaussée-d'Antin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Chauss%C3%A9e-d%27Antin</t>
+          <t>Cimetière_de_la_Chaussée-d'Antin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Chaussée-d'Antin est un ancien cimetière qui était situé, alors hors de la ville, dans l'actuel 9e arrondissement de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Chauss%C3%A9e-d%27Antin</t>
+          <t>Cimetière_de_la_Chaussée-d'Antin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit cimetière dont l'entrée, qui serait située aux actuels nos 8-10, rue de la Chaussée-d'Antin, s'effectuait par une petite ruelle.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Chauss%C3%A9e-d%27Antin</t>
+          <t>Cimetière_de_la_Chaussée-d'Antin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière, de 350 m2, est ouvert en 1756 sur un terrain loué par la fabrique de la paroisse Saint-Roch dont le cimetière avait été désaffecté après l'expansion de l'église. 
 Ce cimetière qui recevait environ 300 corps par an, fut interdit en 1781 et fermé en avril 1782, à la suite de la réglementation qui suivit la fermeture du cimetière des Innocents. Il fut remplacé par le cimetière de la rue Royale.
